--- a/quotations/management/commands/oblupricelistnew.xlsx
+++ b/quotations/management/commands/oblupricelistnew.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d1008cda5071194/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhij\PycharmProjects\ObluMerge\quotations\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC1048FD09DE4A305BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19CF0E76-3918-42FE-B939-6B804C93C84B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953AE221-CE68-4498-AED5-41A1B9C507DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="206">
   <si>
     <t>Product Category</t>
   </si>
@@ -864,6 +864,9 @@
   </si>
   <si>
     <t>Tax Rate 2</t>
+  </si>
+  <si>
+    <t>FormLabs</t>
   </si>
 </sst>
 </file>
@@ -1536,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="I181" sqref="I181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,7 +1592,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1610,7 +1615,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1631,7 +1638,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1652,7 +1661,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1696,7 +1707,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
@@ -4703,7 +4716,9 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="27"/>
+      <c r="A139" s="27" t="s">
+        <v>205</v>
+      </c>
       <c r="B139" s="47" t="s">
         <v>154</v>
       </c>
@@ -4724,7 +4739,9 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="29"/>
+      <c r="A140" s="27" t="s">
+        <v>205</v>
+      </c>
       <c r="B140" s="49" t="s">
         <v>155</v>
       </c>
@@ -4745,7 +4762,9 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="29"/>
+      <c r="A141" s="27" t="s">
+        <v>205</v>
+      </c>
       <c r="B141" s="49" t="s">
         <v>156</v>
       </c>
@@ -4766,7 +4785,9 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="29"/>
+      <c r="A142" s="27" t="s">
+        <v>205</v>
+      </c>
       <c r="B142" s="49" t="s">
         <v>157</v>
       </c>
@@ -4787,7 +4808,9 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="29"/>
+      <c r="A143" s="27" t="s">
+        <v>205</v>
+      </c>
       <c r="B143" s="49" t="s">
         <v>158</v>
       </c>
@@ -4808,7 +4831,9 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="29"/>
+      <c r="A144" s="27" t="s">
+        <v>205</v>
+      </c>
       <c r="B144" s="49" t="s">
         <v>159</v>
       </c>
@@ -4829,7 +4854,9 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="29"/>
+      <c r="A145" s="27" t="s">
+        <v>205</v>
+      </c>
       <c r="B145" s="49" t="s">
         <v>160</v>
       </c>
@@ -4850,7 +4877,9 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="29"/>
+      <c r="A146" s="27" t="s">
+        <v>205</v>
+      </c>
       <c r="B146" s="49" t="s">
         <v>161</v>
       </c>
@@ -4871,7 +4900,9 @@
       </c>
     </row>
     <row r="147" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="29"/>
+      <c r="A147" s="27" t="s">
+        <v>205</v>
+      </c>
       <c r="B147" s="49" t="s">
         <v>162</v>
       </c>
@@ -4892,7 +4923,9 @@
       </c>
     </row>
     <row r="148" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="29"/>
+      <c r="A148" s="27" t="s">
+        <v>205</v>
+      </c>
       <c r="B148" s="49" t="s">
         <v>163</v>
       </c>
@@ -4913,7 +4946,9 @@
       </c>
     </row>
     <row r="149" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="29"/>
+      <c r="A149" s="27" t="s">
+        <v>205</v>
+      </c>
       <c r="B149" s="49" t="s">
         <v>164</v>
       </c>
@@ -4934,7 +4969,9 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="29"/>
+      <c r="A150" s="27" t="s">
+        <v>205</v>
+      </c>
       <c r="B150" s="49" t="s">
         <v>165</v>
       </c>
@@ -4955,7 +4992,9 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="29"/>
+      <c r="A151" s="27" t="s">
+        <v>205</v>
+      </c>
       <c r="B151" s="49" t="s">
         <v>166</v>
       </c>
@@ -5704,6 +5743,12 @@
       <c r="E183" s="53">
         <v>16000</v>
       </c>
+      <c r="F183">
+        <v>18</v>
+      </c>
+      <c r="G183" s="59">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="184" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="55" t="s">
@@ -5720,6 +5765,12 @@
       </c>
       <c r="E184" s="53">
         <v>4500</v>
+      </c>
+      <c r="F184">
+        <v>18</v>
+      </c>
+      <c r="G184" s="59">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
